--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_15-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_15-49.xlsx
@@ -68,6 +68,12 @@
     <t>0:8</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -77,9 +83,6 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>3:0</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>11:0</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>DOLCYL M 2/500MG 20 F.C. TAB</t>
@@ -928,7 +934,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -954,11 +960,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,7 +972,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -974,17 +980,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -992,7 +998,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1000,17 +1006,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1026,17 +1032,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>-96</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1044,7 +1050,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1052,17 +1058,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1070,7 +1076,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1078,13 +1084,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>65</v>
+        <v>-96</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1096,7 +1102,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1104,17 +1110,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>86.5</v>
+        <v>-15</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1122,7 +1128,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1130,17 +1136,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1148,7 +1154,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1156,17 +1162,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>31</v>
+        <v>86.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1174,7 +1180,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1182,7 +1188,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1192,7 +1198,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1200,7 +1206,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1208,13 +1214,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1234,17 +1240,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>56.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1252,7 +1258,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1260,17 +1266,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>37.600000000000001</v>
+        <v>76</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1278,7 +1284,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1286,13 +1292,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>42</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1312,17 +1318,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>76</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1344,11 +1350,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1364,13 +1370,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1382,7 +1388,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1390,13 +1396,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1408,7 +1414,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1416,13 +1422,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1442,13 +1448,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1468,13 +1474,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1486,7 +1492,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1500,45 +1506,97 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
-      <c r="K33" s="10">
-        <v>877.89999999999998</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" ht="17.25" customHeight="1">
-      <c t="s" r="A34" s="11">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="7">
+        <v>54</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c t="s" r="H33" s="8">
         <v>55</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c t="s" r="F34" s="12">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9">
+        <v>15</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c t="s" r="N33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>56</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c t="s" r="I34" s="14">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
+        <v>9</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>40</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="26.25" customHeight="1">
+      <c r="K35" s="10">
+        <v>932.89999999999998</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="11">
         <v>57</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c t="s" r="F36" s="12">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c t="s" r="I36" s="14">
+        <v>59</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="104">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1633,10 +1691,16 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
